--- a/data/hotels_by_city/Dallas/Dallas_shard_748.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_748.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="466">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,1275 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r558840572-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>56759</t>
+  </si>
+  <si>
+    <t>247116</t>
+  </si>
+  <si>
+    <t>558840572</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>The Bedding was stained and 2 lightbulbs were missing from...</t>
+  </si>
+  <si>
+    <t>The Bedding was stained and 2 lightbulbs were missing from the lamps and the front door paint was peeling and was hard to close. Extremely small room for the price. Also employees just walked in without knocking 2 hours before checkout. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2018</t>
+  </si>
+  <si>
+    <t>The Bedding was stained and 2 lightbulbs were missing from the lamps and the front door paint was peeling and was hard to close. Extremely small room for the price. Also employees just walked in without knocking 2 hours before checkout. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r548533181-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>548533181</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r539697115-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>539697115</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>1st Monday Weekend Canton</t>
+  </si>
+  <si>
+    <t>Was not impressed with the room when we arrived. Most definitely lacked cleanliness.Towels in the bathroom weren't neat they were stained not sure what the brown marks were let your imagination wonder ,bed spread was stained and there was hair on the sheets. Coffey pot, mirrors, ect. were dusty looked like they had not been cleaned in months. I went down stair to the office and requested new towel I was told I would have to wait till around 730 before maid service showed up for clean towels. This is Canton weekend you get up early and leave for the sale. So I went to Wal-Mart in Terrell Tx. and purchased towels wash cloths, King size sheet set along with cleaning supplies. To make the best of the weekend. We left Saturday I was talking to another person who had arrived Wed night also and they were dissatisfied with their room also ask for a refund and was told they had to give an 48 hr notice. I can understand if you where going to cancel the room but when you arrive and expect a clean and decent room and that's not what's presented you should be able to get your money back. I feel like this hotel should refund my money. Please don't waste your time or money for this establishment .washer and dyer is outside between the buildings.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded November 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2017</t>
+  </si>
+  <si>
+    <t>Was not impressed with the room when we arrived. Most definitely lacked cleanliness.Towels in the bathroom weren't neat they were stained not sure what the brown marks were let your imagination wonder ,bed spread was stained and there was hair on the sheets. Coffey pot, mirrors, ect. were dusty looked like they had not been cleaned in months. I went down stair to the office and requested new towel I was told I would have to wait till around 730 before maid service showed up for clean towels. This is Canton weekend you get up early and leave for the sale. So I went to Wal-Mart in Terrell Tx. and purchased towels wash cloths, King size sheet set along with cleaning supplies. To make the best of the weekend. We left Saturday I was talking to another person who had arrived Wed night also and they were dissatisfied with their room also ask for a refund and was told they had to give an 48 hr notice. I can understand if you where going to cancel the room but when you arrive and expect a clean and decent room and that's not what's presented you should be able to get your money back. I feel like this hotel should refund my money. Please don't waste your time or money for this establishment .washer and dyer is outside between the buildings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r529586189-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>529586189</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Online Rating was misleading. Gross plug ins and light switches!! Property wouldn't give us our prepaid money back.</t>
+  </si>
+  <si>
+    <t>Manager would not give us our prepaid second night money back when we were not happy. Fortunately we contacted booking.com customer service and they called the property threatening to file a complaint and only then did they agree to refund us for the upcoming night. The person at the desk wanted to argue with us about what we didn't like. It wasn't like we were asking for a full refund, we just wanted our money back for the night we were not going to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded October 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2017</t>
+  </si>
+  <si>
+    <t>Manager would not give us our prepaid second night money back when we were not happy. Fortunately we contacted booking.com customer service and they called the property threatening to file a complaint and only then did they agree to refund us for the upcoming night. The person at the desk wanted to argue with us about what we didn't like. It wasn't like we were asking for a full refund, we just wanted our money back for the night we were not going to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r526860013-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>526860013</t>
+  </si>
+  <si>
+    <t>09/23/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r525289256-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>525289256</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>Easy access from interstate, staff friendly and helpful, room clean and inviting, smelled good upon entering, restaurants nearby, bed comfortable, breakfast very good with hot and cold items.  We enjoyed our stay and would stay there again if going that way.  Although some items were visibly older, they were well cared for and functional.  Great bargain for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded September 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2017</t>
+  </si>
+  <si>
+    <t>Easy access from interstate, staff friendly and helpful, room clean and inviting, smelled good upon entering, restaurants nearby, bed comfortable, breakfast very good with hot and cold items.  We enjoyed our stay and would stay there again if going that way.  Although some items were visibly older, they were well cared for and functional.  Great bargain for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r494988487-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>494988487</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r492066802-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>492066802</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t>Watch Your Bill</t>
+  </si>
+  <si>
+    <t>We stayed one night at this motel while on a quick trip to visit our grandson.  I booked directly with the hotel.  The motel it's self is in renovation and as I got the last long available it was one of the old rooms.  The room was clean no frills but that suited our purpose so was not an issue.  The breakfast had great coffee but was ceral, waffles etc and was not a hot breakfast.  My issue with hotel is that I was charged $840.70 for an $80.70 room.  Although my $756 refund has "been issed" it will take 2-3 weeks to post to my account.  While the clerk apologized several times we were not comped for our room and left 500 miles from home with no options allows by the hotel but to wait for our refund.  Not to their credit we did have other resources and are on our way home to await our $756 refund!MoreShow less</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>We stayed one night at this motel while on a quick trip to visit our grandson.  I booked directly with the hotel.  The motel it's self is in renovation and as I got the last long available it was one of the old rooms.  The room was clean no frills but that suited our purpose so was not an issue.  The breakfast had great coffee but was ceral, waffles etc and was not a hot breakfast.  My issue with hotel is that I was charged $840.70 for an $80.70 room.  Although my $756 refund has "been issed" it will take 2-3 weeks to post to my account.  While the clerk apologized several times we were not comped for our room and left 500 miles from home with no options allows by the hotel but to wait for our refund.  Not to their credit we did have other resources and are on our way home to await our $756 refund!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r491566735-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>491566735</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r481306912-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>481306912</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Super8TerrellDallas, Webmaster at Super 8 Terrell, responded to this reviewResponded May 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r479986666-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>479986666</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t>Super8TerrellDallas, webmaster at Super 8 Terrell, responded to this reviewResponded May 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r475315733-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>475315733</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Super8TerrellDallas, Webmaster at Super 8 Terrell, responded to this reviewResponded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r469666021-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>469666021</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Super8TerrellDallas, webmaster at Super 8 Terrell, responded to this reviewResponded April 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r465678382-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>465678382</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>Looks clean but look closer it will make your skin crawl.</t>
+  </si>
+  <si>
+    <t>The place appears clean till you look closer and there is stuff all over your beds including what appeared to be urine, blood or other bodily fluids and food from who knows when. There was one towel for two occupants and I had to wait three hours for them to wash me some so I could shower on which I did not because there were bugs in the tub. I actually got cleaning supplies out of my car and cleaned a spot for me to sleep and was lucky I had my own blanket and pillow. I couldn't not afford to go any place else and was a women alone in a strange town from another state. I was charged for two but my daughter couldn't stay had to send her home with my ex which is someone she doesn't even know but it was safer then staying in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Super8TerrellDallas, Webmaster at Super 8 Terrell, responded to this reviewResponded March 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2017</t>
+  </si>
+  <si>
+    <t>The place appears clean till you look closer and there is stuff all over your beds including what appeared to be urine, blood or other bodily fluids and food from who knows when. There was one towel for two occupants and I had to wait three hours for them to wash me some so I could shower on which I did not because there were bugs in the tub. I actually got cleaning supplies out of my car and cleaned a spot for me to sleep and was lucky I had my own blanket and pillow. I couldn't not afford to go any place else and was a women alone in a strange town from another state. I was charged for two but my daughter couldn't stay had to send her home with my ex which is someone she doesn't even know but it was safer then staying in the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r459718631-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>459718631</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Not good</t>
+  </si>
+  <si>
+    <t>Upon arrival, I was assigned a room, and the air conditioner did not work. I called the front desk and the lady there argued with me and told me to try it again. I did, and it still didn't work.  Then I tried to close the curtain and the first hook on one side was missing, so there was about a 5 inch gap. So I called back and asked for another room. She gave me one.  This time the AC worked but when it was cooling it was EXTREMELY LOUD and I couldn't sleep unless I just ran the fan, no cooling. I know it was February but it was 90 degrees that day. so it was an unacceptable situation.  The room didn't have that clean comfortable feel to it. Not going back.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Super8TerrellDallas, Webmaster at Super 8 Terrell, responded to this reviewResponded February 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2017</t>
+  </si>
+  <si>
+    <t>Upon arrival, I was assigned a room, and the air conditioner did not work. I called the front desk and the lady there argued with me and told me to try it again. I did, and it still didn't work.  Then I tried to close the curtain and the first hook on one side was missing, so there was about a 5 inch gap. So I called back and asked for another room. She gave me one.  This time the AC worked but when it was cooling it was EXTREMELY LOUD and I couldn't sleep unless I just ran the fan, no cooling. I know it was February but it was 90 degrees that day. so it was an unacceptable situation.  The room didn't have that clean comfortable feel to it. Not going back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r448675877-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>448675877</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>I asked if they had a large tub room and they said they had...</t>
+  </si>
+  <si>
+    <t>I asked if they had a large tub room and they said they had a whirlpool room that would be more money, but that it wasn't working anymore (seemed like a long time) and I asked if it held water. They didn't know.But the room I did get recently had the bathroom tub/shower/floor redone. And the tub was deeper than older tubs which was great. I'm a truck driver that loves baths. Had a two soak listening to the blues and rock.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded January 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2017</t>
+  </si>
+  <si>
+    <t>I asked if they had a large tub room and they said they had a whirlpool room that would be more money, but that it wasn't working anymore (seemed like a long time) and I asked if it held water. They didn't know.But the room I did get recently had the bathroom tub/shower/floor redone. And the tub was deeper than older tubs which was great. I'm a truck driver that loves baths. Had a two soak listening to the blues and rock.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r445425358-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>445425358</t>
+  </si>
+  <si>
+    <t>12/19/2016</t>
+  </si>
+  <si>
+    <t>Worst motel ever</t>
+  </si>
+  <si>
+    <t>Our first room had mold growing on the box spings and mattress , the carpets were filthy , and the base board trim was falling off the wall. We were moved to a second room which was no better and then a third room that was still disgusting .  With the noise from the band across the street and the people on the second floor tossing out the beef cans to the parking area we leftMoreShow less</t>
+  </si>
+  <si>
+    <t>Super8TerrellDallas, Webmaster at Super 8 Terrell, responded to this reviewResponded December 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2016</t>
+  </si>
+  <si>
+    <t>Our first room had mold growing on the box spings and mattress , the carpets were filthy , and the base board trim was falling off the wall. We were moved to a second room which was no better and then a third room that was still disgusting .  With the noise from the band across the street and the people on the second floor tossing out the beef cans to the parking area we leftMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r440759497-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>440759497</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Super8TerrellDallas, Webmaster at Super 8 Terrell, responded to this reviewResponded December 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r426394801-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>426394801</t>
+  </si>
+  <si>
+    <t>10/09/2016</t>
+  </si>
+  <si>
+    <t>Fun trip to first Monday</t>
+  </si>
+  <si>
+    <t>Trip to first Monday.  Bed had cigarette burns in bedspread.  Crickets all over the place.  Terrible smellMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Super8TerrellDallas, Webmaster at Super 8 Terrell, responded to this reviewResponded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Trip to first Monday.  Bed had cigarette burns in bedspread.  Crickets all over the place.  Terrible smellMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r421639606-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>421639606</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r408948382-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>408948382</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Quiet and pleasant</t>
+  </si>
+  <si>
+    <t>Owners and employees are very pleasant and accommodating.  Disappointed with the carpet in the rooms they are dirty.  The blankets and bedspreads need to be laundered. The outside is well lit and parking is ampleMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Owners and employees are very pleasant and accommodating.  Disappointed with the carpet in the rooms they are dirty.  The blankets and bedspreads need to be laundered. The outside is well lit and parking is ampleMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r397570080-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>397570080</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Super8TerrellDallas, Webmaster at Super 8 Terrell, responded to this reviewResponded August 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r387408724-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>387408724</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Super8TerrellDallas, Webmaster at Super 8 Terrell, responded to this reviewResponded July 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r385781818-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>385781818</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r370002849-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>370002849</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded May 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r366096300-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>366096300</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>terrible stay rude manager</t>
+  </si>
+  <si>
+    <t>i was dropped off by taxi due to my car was in shop for repair.  I just had knee replacement.  room had dirty towels in floor, toilet was dirty and floor was dirty around toilet.  also mirror in bathroom had dirty spots all over it.  I spoke to manager Nimi Desai about it and her reaction was she didnt care.  She told me i could have gone to another hotel, due to that was the last room that they had.   I stay at these properties all the time and this was by the far the rudest manager and worst stay ive ever had.  I would like a call back and something dont to the manager at this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2016</t>
+  </si>
+  <si>
+    <t>i was dropped off by taxi due to my car was in shop for repair.  I just had knee replacement.  room had dirty towels in floor, toilet was dirty and floor was dirty around toilet.  also mirror in bathroom had dirty spots all over it.  I spoke to manager Nimi Desai about it and her reaction was she didnt care.  She told me i could have gone to another hotel, due to that was the last room that they had.   I stay at these properties all the time and this was by the far the rudest manager and worst stay ive ever had.  I would like a call back and something dont to the manager at this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r357991632-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>357991632</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Worst hotel ever..</t>
+  </si>
+  <si>
+    <t>It should be illegal to charge for staying in a place like this. If it wasn't late, I would have left right away. The smell in the room was horrible, the carpet was wet, there were dirty dishes and leftover food in the fridge. We were all sick the next day - I suspect there is mold. They charged horribly high price for a place that should be closed down. They advertise breakfast - what a horror. The waffle mixture was spoiled and tasted nasty, there was bread and butter, some kind of sugary pastry, and that's it, not even cream cheese. Nobody should stay there - drive 25 more minutes and will be in some decent places outside of Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Super8TerrellDallas, Webmaster at Super 8 Terrell, responded to this reviewResponded April 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2016</t>
+  </si>
+  <si>
+    <t>It should be illegal to charge for staying in a place like this. If it wasn't late, I would have left right away. The smell in the room was horrible, the carpet was wet, there were dirty dishes and leftover food in the fridge. We were all sick the next day - I suspect there is mold. They charged horribly high price for a place that should be closed down. They advertise breakfast - what a horror. The waffle mixture was spoiled and tasted nasty, there was bread and butter, some kind of sugary pastry, and that's it, not even cream cheese. Nobody should stay there - drive 25 more minutes and will be in some decent places outside of Dallas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r324361646-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>324361646</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>Unresolved problems</t>
+  </si>
+  <si>
+    <t>We have stayed at this property before with no complaints or problems but this most recent trip was full of problems. We booked three rooms with problems in each one. My parent's room had a toilet seat that was unsecure and a coffee maker that leaked everywhere. The mini-fridge also leaked all over the carpet. These issues were brought to the attention of the front desk on the first night-no repairs were made. Out second room, booked and advertised as Non-smoking was full of a smoke smell. The third room, sheets were stained. I am sorely disappointed in this hotel and will likely not re-book here. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded December 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2015</t>
+  </si>
+  <si>
+    <t>We have stayed at this property before with no complaints or problems but this most recent trip was full of problems. We booked three rooms with problems in each one. My parent's room had a toilet seat that was unsecure and a coffee maker that leaked everywhere. The mini-fridge also leaked all over the carpet. These issues were brought to the attention of the front desk on the first night-no repairs were made. Out second room, booked and advertised as Non-smoking was full of a smoke smell. The third room, sheets were stained. I am sorely disappointed in this hotel and will likely not re-book here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r323978164-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>323978164</t>
+  </si>
+  <si>
+    <t>11/02/2015</t>
+  </si>
+  <si>
+    <t>Avoid this hotel if possible</t>
+  </si>
+  <si>
+    <t>This was one of the worst hotel/motels that I have ever visited.  The only saving grace was the two desk clerks, Melissa and Jennifer, who tried unsuccessfully to correct the problems.  Light in vanity did work sporadically (starter?), coffee maker touchy = had to hold down the button that turns it on, carpet was filthy, toilet seat was loose so it shifted when I sat down.  One room (we had 3) had sheets on one bed that were stained.  No manager on duty, no maintenance available.MoreShow less</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2015</t>
+  </si>
+  <si>
+    <t>This was one of the worst hotel/motels that I have ever visited.  The only saving grace was the two desk clerks, Melissa and Jennifer, who tried unsuccessfully to correct the problems.  Light in vanity did work sporadically (starter?), coffee maker touchy = had to hold down the button that turns it on, carpet was filthy, toilet seat was loose so it shifted when I sat down.  One room (we had 3) had sheets on one bed that were stained.  No manager on duty, no maintenance available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r323651841-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>323651841</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>Nice Motel Reasonable Price - Tanger Factory Outlets - Good Tour Bus Parking</t>
+  </si>
+  <si>
+    <t>This motel is about 40 Miles East of Dallas Texas.  Reasonable Price, Nice Rooms,  Tanger Factory Outlets this exit also. Good Place to stay just outside of the Dallas Area.  Plenty of Restaurant Options within a mile of the Motel.  Good Parking for a Tour Bus on a Concrete Parking Lot alsoMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>This motel is about 40 Miles East of Dallas Texas.  Reasonable Price, Nice Rooms,  Tanger Factory Outlets this exit also. Good Place to stay just outside of the Dallas Area.  Plenty of Restaurant Options within a mile of the Motel.  Good Parking for a Tour Bus on a Concrete Parking Lot alsoMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r295138049-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>295138049</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>Fine...but nothing spectacular</t>
+  </si>
+  <si>
+    <t>It was fine for a night. Clean, basic lodging. I had to ask for towels because there was only a hand towel in the room. The staff was friendly and helpful. The room had been updated at some point. They seemed to be doing their best to put a fresh face on an old property.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded August 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2015</t>
+  </si>
+  <si>
+    <t>It was fine for a night. Clean, basic lodging. I had to ask for towels because there was only a hand towel in the room. The staff was friendly and helpful. The room had been updated at some point. They seemed to be doing their best to put a fresh face on an old property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r294827942-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>294827942</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r294213636-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>294213636</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded July 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r280533234-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>280533234</t>
+  </si>
+  <si>
+    <t>06/15/2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Nimi D, Front Office Manager at Super 8 Terrell, responded to this reviewResponded July 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r277302551-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>277302551</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded June 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r274835618-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>274835618</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>I would stay again</t>
+  </si>
+  <si>
+    <t>The stay was not bad.  The room was clean, the AC worked perfectly.  They had coffee in the lobby and the room.  the pool was small but extremely clean. The staff was extremely friendly and helpful.  I would stay here again.  The only tip would be to get a room at the back of the hotel to lessen the road noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>The stay was not bad.  The room was clean, the AC worked perfectly.  They had coffee in the lobby and the room.  the pool was small but extremely clean. The staff was extremely friendly and helpful.  I would stay here again.  The only tip would be to get a room at the back of the hotel to lessen the road noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r249216716-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>249216716</t>
+  </si>
+  <si>
+    <t>01/13/2015</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded January 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r247489058-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>247489058</t>
+  </si>
+  <si>
+    <t>01/04/2015</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded January 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r242835581-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>242835581</t>
+  </si>
+  <si>
+    <t>12/03/2014</t>
+  </si>
+  <si>
+    <t>Great stop on interstate 20</t>
+  </si>
+  <si>
+    <t>Passing through the area on interstate 20 and started drizzling and this was a very convenient and well lit exit for us.  Pulled into super 8 and got a nice clean room with all the amenities including some we didn't expect in such a small hotel.  And the price was very reasonable for the area comparing online prices.  The young girl at the front desk Debbie even directed us to an amazing little local steak house we'd never have found on our own.  Definitely going to mark this spot on our gps as we travel through here often.MoreShow less</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded December 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2014</t>
+  </si>
+  <si>
+    <t>Passing through the area on interstate 20 and started drizzling and this was a very convenient and well lit exit for us.  Pulled into super 8 and got a nice clean room with all the amenities including some we didn't expect in such a small hotel.  And the price was very reasonable for the area comparing online prices.  The young girl at the front desk Debbie even directed us to an amazing little local steak house we'd never have found on our own.  Definitely going to mark this spot on our gps as we travel through here often.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r236327605-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>236327605</t>
+  </si>
+  <si>
+    <t>10/26/2014</t>
+  </si>
+  <si>
+    <t>BEDBUGS</t>
+  </si>
+  <si>
+    <t>It looked clean but you never know, I told the lady at the front desk the next morning, she said that she would have maintaince look into it. also they had something going on across the street at the bar and so do to the greed of the owner they were charging more. that is crap. why do I have to pay more because the greedy owner knows that they are going to rent the rooms at a higher price. I will never stay there again and will tell everone I know to stay far away.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded October 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2014</t>
+  </si>
+  <si>
+    <t>It looked clean but you never know, I told the lady at the front desk the next morning, she said that she would have maintaince look into it. also they had something going on across the street at the bar and so do to the greed of the owner they were charging more. that is crap. why do I have to pay more because the greedy owner knows that they are going to rent the rooms at a higher price. I will never stay there again and will tell everone I know to stay far away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r236112687-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>236112687</t>
+  </si>
+  <si>
+    <t>10/24/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay for the price!</t>
+  </si>
+  <si>
+    <t>Stopped at this Super 8 driving back to MS from south Texas and it was a good choice. The hotel is in an easy to access area right off I-20 and the rooms were clean, with fridge, flat-screen tv and microwave. The lady at the front desk was very friendly and even showed me how to use the waffle maker, which I'd never used before. It made a HUGE waffle that was delicious. This location was great for us because we were able to get past the traffic of Dallas. Highly recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded October 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2014</t>
+  </si>
+  <si>
+    <t>Stopped at this Super 8 driving back to MS from south Texas and it was a good choice. The hotel is in an easy to access area right off I-20 and the rooms were clean, with fridge, flat-screen tv and microwave. The lady at the front desk was very friendly and even showed me how to use the waffle maker, which I'd never used before. It made a HUGE waffle that was delicious. This location was great for us because we were able to get past the traffic of Dallas. Highly recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r230522048-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>230522048</t>
+  </si>
+  <si>
+    <t>09/23/2014</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded September 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r221680196-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>221680196</t>
+  </si>
+  <si>
+    <t>08/13/2014</t>
+  </si>
+  <si>
+    <t>It was great to be greeted with a smiling face after a long trip!!!!!!!!</t>
+  </si>
+  <si>
+    <t>The desk clerk that checked us in named Stephanie was very friendly and helpful and got us checked in quickly in which I was very grateful for. It was very hot outside that night and the a/c didn't cool the room adequately. Overall a great stay!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded August 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2014</t>
+  </si>
+  <si>
+    <t>The desk clerk that checked us in named Stephanie was very friendly and helpful and got us checked in quickly in which I was very grateful for. It was very hot outside that night and the a/c didn't cool the room adequately. Overall a great stay!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r220264929-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>220264929</t>
+  </si>
+  <si>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t>Okay stay</t>
+  </si>
+  <si>
+    <t>Customer service was great and breakfast was excellent. We did request a non-smoking room, but the room still smelled like smoke. Also, the weather was unseasonably cool and rainy, but the hot tub was the same temperature as the pool, which was a little disappointing. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded August 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2014</t>
+  </si>
+  <si>
+    <t>Customer service was great and breakfast was excellent. We did request a non-smoking room, but the room still smelled like smoke. Also, the weather was unseasonably cool and rainy, but the hot tub was the same temperature as the pool, which was a little disappointing. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r218492844-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>218492844</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>We recently stayed here for a few nights while in town for a wedding.  The staff was great, and the rooms were clean and well-stocked.  We thoroughly enjoyed our stay.  It was a great value for a low price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded August 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2014</t>
+  </si>
+  <si>
+    <t>We recently stayed here for a few nights while in town for a wedding.  The staff was great, and the rooms were clean and well-stocked.  We thoroughly enjoyed our stay.  It was a great value for a low price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r212252660-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>212252660</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>Not the greatest</t>
+  </si>
+  <si>
+    <t>I realized this is a Budget Motel, but our room was not good. It had all these small flies in it along with hair all in the bottom of the bath, part of this problem was probably because the tub drained so slow. Also the carpet was filthy. Not worth $60.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded June 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2014</t>
+  </si>
+  <si>
+    <t>I realized this is a Budget Motel, but our room was not good. It had all these small flies in it along with hair all in the bottom of the bath, part of this problem was probably because the tub drained so slow. Also the carpet was filthy. Not worth $60.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r211882563-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>211882563</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>Could have been better</t>
+  </si>
+  <si>
+    <t>Checking in the lady was taking a personal phone call, that's my biggest pet peeve. Ugh. Motioned her finger which way my room. The bed was hard. Non existing pillows. No chair to sit in. It was clean. I thought the price was a little much for this particular place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Checking in the lady was taking a personal phone call, that's my biggest pet peeve. Ugh. Motioned her finger which way my room. The bed was hard. Non existing pillows. No chair to sit in. It was clean. I thought the price was a little much for this particular place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r196483003-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>196483003</t>
+  </si>
+  <si>
+    <t>03/06/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded March 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r181847684-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>181847684</t>
+  </si>
+  <si>
+    <t>10/21/2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded November 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r180307935-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>180307935</t>
+  </si>
+  <si>
+    <t>10/09/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r176750279-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>176750279</t>
+  </si>
+  <si>
+    <t>09/11/2013</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>Service was great. Clerk on duty at check-in was extremely professional and helpful. Clerk on duty the next morning was constantly re-stocking the breakfast area. Room furniture and bed comforter were a bit worn and out-dated. But the room was clean and everything was in working order. I would recommend this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Office Manager at Super 8 Terrell, responded to this reviewResponded September 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2013</t>
+  </si>
+  <si>
+    <t>Service was great. Clerk on duty at check-in was extremely professional and helpful. Clerk on duty the next morning was constantly re-stocking the breakfast area. Room furniture and bed comforter were a bit worn and out-dated. But the room was clean and everything was in working order. I would recommend this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r173491253-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>173491253</t>
+  </si>
+  <si>
+    <t>08/22/2013</t>
+  </si>
+  <si>
+    <t>Clean but loud</t>
+  </si>
+  <si>
+    <t>Room was clean, bed comfortable. Had a noise problem because of a night club across the street, until 2 AM.MoreShow less</t>
+  </si>
+  <si>
+    <t>Room was clean, bed comfortable. Had a noise problem because of a night club across the street, until 2 AM.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r164287797-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>164287797</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Desk Associate at Super 8 Terrell, responded to this reviewResponded June 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r160743912-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>160743912</t>
+  </si>
+  <si>
+    <t>05/14/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Supereight T, Front Desk at Super 8 Terrell, responded to this reviewResponded June 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r151191500-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>151191500</t>
+  </si>
+  <si>
+    <t>02/01/2013</t>
+  </si>
+  <si>
+    <t>Very friendly checking experience</t>
+  </si>
+  <si>
+    <t>Super 8 in Terrell was a small treat.   The check in service was great the staff upon checking in we're superb!   The room was clean and neat    The only thing I could say is need more pillows but overall a decent room for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Supereight T, front desk clerk at Super 8 Terrell, responded to this reviewResponded February 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2013</t>
+  </si>
+  <si>
+    <t>Super 8 in Terrell was a small treat.   The check in service was great the staff upon checking in we're superb!   The room was clean and neat    The only thing I could say is need more pillows but overall a decent room for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r146164278-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>146164278</t>
+  </si>
+  <si>
+    <t>11/25/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Nimi D, Owner at Super 8 Terrell, responded to this reviewResponded August 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r145417767-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>145417767</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r144694064-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>144694064</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r130168267-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>130168267</t>
+  </si>
+  <si>
+    <t>05/18/2012</t>
+  </si>
+  <si>
+    <t>OVERNIGHT STAY</t>
+  </si>
+  <si>
+    <t>We checked in late in a pouring rain.  With all the excitement I fogot my credit card at the desk.  I did not realize that I had left it until the next day in another town.  When I called the desk, they confirmed that I had indeed left my card and they sent it to me the next day.  I was extremely relieved.  The staff was very competent. The price was reasonable and it was good for an overnight stay.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r129206531-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>129206531</t>
+  </si>
+  <si>
+    <t>05/01/2012</t>
+  </si>
+  <si>
+    <t>Great Staff and rooms were just OK</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the Super 8 after a fun but exhausting day at Six Flags.  The room was reasonably priced and the front desk clerk was Super Great.  The room was good and clean, but the bed was awful.  I felt like I was sleeping on a piece of wood covered in a pee pad.  The pillows were completely flat, which sucked for someone who has to sleep with there head slightly  elevated.  There was someone in the parking lot that played LOUD music all night which made it hard to sleep.  All in all this was a good place for a short visit.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r123811247-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>123811247</t>
+  </si>
+  <si>
+    <t>01/29/2012</t>
+  </si>
+  <si>
+    <t>Great evening out with friends</t>
+  </si>
+  <si>
+    <t>Just wanted to thank Super 8 for a great stay as usual this past Friday night.  Our friends all enjoy getting together to see a great show like Wade Bowen across the street at the Silver Saloon and then stay the night with you so nobody has to think about driving home.  You always take great care of us however many rooms we need.  We'll be seeing you again for sure!</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r24890137-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>24890137</t>
+  </si>
+  <si>
+    <t>02/21/2009</t>
+  </si>
+  <si>
+    <t>Most unpleasant stay I can remember in last 40 years</t>
+  </si>
+  <si>
+    <t>Four nights, Two nights no clean towels(ran out), Second night rather than leaving a message They deactivated room key so that I would have to come to office, Ice machine did not work two nights, Next door guest had toilet overflow and they would not come and fix, rude front desk personnel, no hot water one night( front desk told wife to many people wre taking a shower..then said sorry girl)</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r8221589-Super_8_Terrell-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>8221589</t>
+  </si>
+  <si>
+    <t>07/22/2007</t>
+  </si>
+  <si>
+    <t>Heh good enough</t>
+  </si>
+  <si>
+    <t>On our way back from Vegas, we stopped at this hotel for a night. We paid around 50$ for a night, and it was clean. The bed was comfortable enough and the breakfast was decent. I liked the free wifi internet access.</t>
+  </si>
+  <si>
+    <t>July 2007</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1914,4305 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>91</v>
+      </c>
+      <c r="X8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>90</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>113</v>
+      </c>
+      <c r="X11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>118</v>
+      </c>
+      <c r="X12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>112</v>
+      </c>
+      <c r="O13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>123</v>
+      </c>
+      <c r="X13" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>129</v>
+      </c>
+      <c r="X14" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>136</v>
+      </c>
+      <c r="X15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>145</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>146</v>
+      </c>
+      <c r="X16" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>155</v>
+      </c>
+      <c r="X17" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>154</v>
+      </c>
+      <c r="O18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>163</v>
+      </c>
+      <c r="X18" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s">
+        <v>145</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>170</v>
+      </c>
+      <c r="X19" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>177</v>
+      </c>
+      <c r="O20" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>178</v>
+      </c>
+      <c r="X20" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21" t="s">
+        <v>183</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s">
+        <v>59</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>184</v>
+      </c>
+      <c r="O21" t="s">
+        <v>90</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>178</v>
+      </c>
+      <c r="X21" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" t="s">
+        <v>189</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" t="s">
+        <v>90</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>191</v>
+      </c>
+      <c r="X22" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>184</v>
+      </c>
+      <c r="O23" t="s">
+        <v>90</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>197</v>
+      </c>
+      <c r="X23" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>199</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>200</v>
+      </c>
+      <c r="J24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s">
+        <v>59</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>202</v>
+      </c>
+      <c r="O24" t="s">
+        <v>69</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>203</v>
+      </c>
+      <c r="X24" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>206</v>
+      </c>
+      <c r="J25" t="s">
+        <v>207</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>202</v>
+      </c>
+      <c r="O25" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>203</v>
+      </c>
+      <c r="X25" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>209</v>
+      </c>
+      <c r="J26" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s">
+        <v>59</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>211</v>
+      </c>
+      <c r="O26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>212</v>
+      </c>
+      <c r="X26" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>215</v>
+      </c>
+      <c r="J27" t="s">
+        <v>216</v>
+      </c>
+      <c r="K27" t="s">
+        <v>217</v>
+      </c>
+      <c r="L27" t="s">
+        <v>218</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>211</v>
+      </c>
+      <c r="O27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>219</v>
+      </c>
+      <c r="X27" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>223</v>
+      </c>
+      <c r="J28" t="s">
+        <v>224</v>
+      </c>
+      <c r="K28" t="s">
+        <v>225</v>
+      </c>
+      <c r="L28" t="s">
+        <v>226</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>227</v>
+      </c>
+      <c r="O28" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>228</v>
+      </c>
+      <c r="X28" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>231</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>232</v>
+      </c>
+      <c r="J29" t="s">
+        <v>233</v>
+      </c>
+      <c r="K29" t="s">
+        <v>234</v>
+      </c>
+      <c r="L29" t="s">
+        <v>235</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>236</v>
+      </c>
+      <c r="O29" t="s">
+        <v>69</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>237</v>
+      </c>
+      <c r="X29" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>241</v>
+      </c>
+      <c r="J30" t="s">
+        <v>242</v>
+      </c>
+      <c r="K30" t="s">
+        <v>243</v>
+      </c>
+      <c r="L30" t="s">
+        <v>244</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>236</v>
+      </c>
+      <c r="O30" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>245</v>
+      </c>
+      <c r="X30" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>248</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>249</v>
+      </c>
+      <c r="J31" t="s">
+        <v>250</v>
+      </c>
+      <c r="K31" t="s">
+        <v>251</v>
+      </c>
+      <c r="L31" t="s">
+        <v>252</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>253</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>245</v>
+      </c>
+      <c r="X31" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>255</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>256</v>
+      </c>
+      <c r="J32" t="s">
+        <v>257</v>
+      </c>
+      <c r="K32" t="s">
+        <v>258</v>
+      </c>
+      <c r="L32" t="s">
+        <v>259</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>260</v>
+      </c>
+      <c r="O32" t="s">
+        <v>145</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>261</v>
+      </c>
+      <c r="X32" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>264</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>265</v>
+      </c>
+      <c r="J33" t="s">
+        <v>266</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>267</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>261</v>
+      </c>
+      <c r="X33" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>268</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>269</v>
+      </c>
+      <c r="J34" t="s">
+        <v>270</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>267</v>
+      </c>
+      <c r="O34" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>271</v>
+      </c>
+      <c r="X34" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>273</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>274</v>
+      </c>
+      <c r="J35" t="s">
+        <v>275</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s">
+        <v>59</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>276</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>277</v>
+      </c>
+      <c r="X35" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>279</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>280</v>
+      </c>
+      <c r="J36" t="s">
+        <v>281</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s">
+        <v>59</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>282</v>
+      </c>
+      <c r="O36" t="s">
+        <v>90</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>283</v>
+      </c>
+      <c r="X36" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>285</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>286</v>
+      </c>
+      <c r="J37" t="s">
+        <v>287</v>
+      </c>
+      <c r="K37" t="s">
+        <v>288</v>
+      </c>
+      <c r="L37" t="s">
+        <v>289</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>282</v>
+      </c>
+      <c r="O37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>283</v>
+      </c>
+      <c r="X37" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>291</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>292</v>
+      </c>
+      <c r="J38" t="s">
+        <v>293</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s">
+        <v>59</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>294</v>
+      </c>
+      <c r="O38" t="s">
+        <v>69</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>295</v>
+      </c>
+      <c r="X38" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>297</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>298</v>
+      </c>
+      <c r="J39" t="s">
+        <v>299</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s">
+        <v>59</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>294</v>
+      </c>
+      <c r="O39" t="s">
+        <v>69</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>300</v>
+      </c>
+      <c r="X39" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>302</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>303</v>
+      </c>
+      <c r="J40" t="s">
+        <v>304</v>
+      </c>
+      <c r="K40" t="s">
+        <v>305</v>
+      </c>
+      <c r="L40" t="s">
+        <v>306</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>307</v>
+      </c>
+      <c r="X40" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>310</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>311</v>
+      </c>
+      <c r="J41" t="s">
+        <v>312</v>
+      </c>
+      <c r="K41" t="s">
+        <v>313</v>
+      </c>
+      <c r="L41" t="s">
+        <v>314</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>315</v>
+      </c>
+      <c r="O41" t="s">
+        <v>61</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>316</v>
+      </c>
+      <c r="X41" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>319</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>320</v>
+      </c>
+      <c r="J42" t="s">
+        <v>321</v>
+      </c>
+      <c r="K42" t="s">
+        <v>322</v>
+      </c>
+      <c r="L42" t="s">
+        <v>323</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>315</v>
+      </c>
+      <c r="O42" t="s">
+        <v>69</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>324</v>
+      </c>
+      <c r="X42" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>327</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>328</v>
+      </c>
+      <c r="J43" t="s">
+        <v>329</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s">
+        <v>59</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>330</v>
+      </c>
+      <c r="O43" t="s">
+        <v>69</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>331</v>
+      </c>
+      <c r="X43" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>333</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>334</v>
+      </c>
+      <c r="J44" t="s">
+        <v>335</v>
+      </c>
+      <c r="K44" t="s">
+        <v>336</v>
+      </c>
+      <c r="L44" t="s">
+        <v>337</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>338</v>
+      </c>
+      <c r="O44" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>339</v>
+      </c>
+      <c r="X44" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>342</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>343</v>
+      </c>
+      <c r="J45" t="s">
+        <v>344</v>
+      </c>
+      <c r="K45" t="s">
+        <v>345</v>
+      </c>
+      <c r="L45" t="s">
+        <v>346</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>347</v>
+      </c>
+      <c r="O45" t="s">
+        <v>69</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>348</v>
+      </c>
+      <c r="X45" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>351</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>352</v>
+      </c>
+      <c r="J46" t="s">
+        <v>353</v>
+      </c>
+      <c r="K46" t="s">
+        <v>354</v>
+      </c>
+      <c r="L46" t="s">
+        <v>355</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>347</v>
+      </c>
+      <c r="O46" t="s">
+        <v>69</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>356</v>
+      </c>
+      <c r="X46" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>359</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>360</v>
+      </c>
+      <c r="J47" t="s">
+        <v>361</v>
+      </c>
+      <c r="K47" t="s">
+        <v>362</v>
+      </c>
+      <c r="L47" t="s">
+        <v>363</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>364</v>
+      </c>
+      <c r="O47" t="s">
+        <v>69</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>365</v>
+      </c>
+      <c r="X47" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>368</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>369</v>
+      </c>
+      <c r="J48" t="s">
+        <v>370</v>
+      </c>
+      <c r="K48" t="s">
+        <v>371</v>
+      </c>
+      <c r="L48" t="s">
+        <v>372</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>364</v>
+      </c>
+      <c r="O48" t="s">
+        <v>61</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>365</v>
+      </c>
+      <c r="X48" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>374</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>375</v>
+      </c>
+      <c r="J49" t="s">
+        <v>376</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s">
+        <v>59</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>377</v>
+      </c>
+      <c r="O49" t="s">
+        <v>145</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>378</v>
+      </c>
+      <c r="X49" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>380</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>381</v>
+      </c>
+      <c r="J50" t="s">
+        <v>382</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s">
+        <v>59</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>383</v>
+      </c>
+      <c r="O50" t="s">
+        <v>145</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>384</v>
+      </c>
+      <c r="X50" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>386</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>387</v>
+      </c>
+      <c r="J51" t="s">
+        <v>388</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>383</v>
+      </c>
+      <c r="O51" t="s">
+        <v>61</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>384</v>
+      </c>
+      <c r="X51" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>389</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>390</v>
+      </c>
+      <c r="J52" t="s">
+        <v>391</v>
+      </c>
+      <c r="K52" t="s">
+        <v>392</v>
+      </c>
+      <c r="L52" t="s">
+        <v>393</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>394</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>395</v>
+      </c>
+      <c r="X52" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>398</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>399</v>
+      </c>
+      <c r="J53" t="s">
+        <v>400</v>
+      </c>
+      <c r="K53" t="s">
+        <v>401</v>
+      </c>
+      <c r="L53" t="s">
+        <v>402</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>394</v>
+      </c>
+      <c r="O53" t="s">
+        <v>69</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>395</v>
+      </c>
+      <c r="X53" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>404</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>405</v>
+      </c>
+      <c r="J54" t="s">
+        <v>406</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s">
+        <v>59</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>407</v>
+      </c>
+      <c r="O54" t="s">
+        <v>90</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>408</v>
+      </c>
+      <c r="X54" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>411</v>
+      </c>
+      <c r="J55" t="s">
+        <v>412</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s">
+        <v>59</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>413</v>
+      </c>
+      <c r="O55" t="s">
+        <v>69</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>414</v>
+      </c>
+      <c r="X55" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>416</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>417</v>
+      </c>
+      <c r="J56" t="s">
+        <v>418</v>
+      </c>
+      <c r="K56" t="s">
+        <v>419</v>
+      </c>
+      <c r="L56" t="s">
+        <v>420</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>421</v>
+      </c>
+      <c r="X56" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>424</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>425</v>
+      </c>
+      <c r="J57" t="s">
+        <v>426</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s">
+        <v>59</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>427</v>
+      </c>
+      <c r="O57" t="s">
+        <v>69</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>428</v>
+      </c>
+      <c r="X57" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>430</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>431</v>
+      </c>
+      <c r="J58" t="s">
+        <v>432</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>427</v>
+      </c>
+      <c r="O58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>433</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>434</v>
+      </c>
+      <c r="J59" t="s">
+        <v>435</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>427</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>436</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>437</v>
+      </c>
+      <c r="J60" t="s">
+        <v>438</v>
+      </c>
+      <c r="K60" t="s">
+        <v>439</v>
+      </c>
+      <c r="L60" t="s">
+        <v>440</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>441</v>
+      </c>
+      <c r="O60" t="s">
+        <v>90</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>442</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>443</v>
+      </c>
+      <c r="J61" t="s">
+        <v>444</v>
+      </c>
+      <c r="K61" t="s">
+        <v>445</v>
+      </c>
+      <c r="L61" t="s">
+        <v>446</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>447</v>
+      </c>
+      <c r="O61" t="s">
+        <v>90</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>448</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>449</v>
+      </c>
+      <c r="J62" t="s">
+        <v>450</v>
+      </c>
+      <c r="K62" t="s">
+        <v>451</v>
+      </c>
+      <c r="L62" t="s">
+        <v>452</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>453</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>454</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>455</v>
+      </c>
+      <c r="J63" t="s">
+        <v>456</v>
+      </c>
+      <c r="K63" t="s">
+        <v>457</v>
+      </c>
+      <c r="L63" t="s">
+        <v>458</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>459</v>
+      </c>
+      <c r="O63" t="s">
+        <v>61</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>26234</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>460</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>461</v>
+      </c>
+      <c r="J64" t="s">
+        <v>462</v>
+      </c>
+      <c r="K64" t="s">
+        <v>463</v>
+      </c>
+      <c r="L64" t="s">
+        <v>464</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>465</v>
+      </c>
+      <c r="O64" t="s">
+        <v>90</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>464</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_748.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_748.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="527">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>838laciec</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>The Bedding was stained and 2 lightbulbs were missing from the lamps and the front door paint was peeling and was hard to close. Extremely small room for the price. Also employees just walked in without knocking 2 hours before checkout. More</t>
   </si>
   <si>
+    <t>BrutusMakes3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r548533181-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Gerald C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r539697115-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>Was not impressed with the room when we arrived. Most definitely lacked cleanliness.Towels in the bathroom weren't neat they were stained not sure what the brown marks were let your imagination wonder ,bed spread was stained and there was hair on the sheets. Coffey pot, mirrors, ect. were dusty looked like they had not been cleaned in months. I went down stair to the office and requested new towel I was told I would have to wait till around 730 before maid service showed up for clean towels. This is Canton weekend you get up early and leave for the sale. So I went to Wal-Mart in Terrell Tx. and purchased towels wash cloths, King size sheet set along with cleaning supplies. To make the best of the weekend. We left Saturday I was talking to another person who had arrived Wed night also and they were dissatisfied with their room also ask for a refund and was told they had to give an 48 hr notice. I can understand if you where going to cancel the room but when you arrive and expect a clean and decent room and that's not what's presented you should be able to get your money back. I feel like this hotel should refund my money. Please don't waste your time or money for this establishment .washer and dyer is outside between the buildings.More</t>
   </si>
   <si>
+    <t>668arbyg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r529586189-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>Manager would not give us our prepaid second night money back when we were not happy. Fortunately we contacted booking.com customer service and they called the property threatening to file a complaint and only then did they agree to refund us for the upcoming night. The person at the desk wanted to argue with us about what we didn't like. It wasn't like we were asking for a full refund, we just wanted our money back for the night we were not going to stay!More</t>
   </si>
   <si>
+    <t>A991AWthomasd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r526860013-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>09/23/2017</t>
   </si>
   <si>
+    <t>Nelda J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r525289256-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -300,6 +318,9 @@
     <t>Easy access from interstate, staff friendly and helpful, room clean and inviting, smelled good upon entering, restaurants nearby, bed comfortable, breakfast very good with hot and cold items.  We enjoyed our stay and would stay there again if going that way.  Although some items were visibly older, they were well cared for and functional.  Great bargain for the price.More</t>
   </si>
   <si>
+    <t>Karen H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r494988487-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -312,6 +333,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>jajead</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r492066802-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -336,6 +360,9 @@
     <t>We stayed one night at this motel while on a quick trip to visit our grandson.  I booked directly with the hotel.  The motel it's self is in renovation and as I got the last long available it was one of the old rooms.  The room was clean no frills but that suited our purpose so was not an issue.  The breakfast had great coffee but was ceral, waffles etc and was not a hot breakfast.  My issue with hotel is that I was charged $840.70 for an $80.70 room.  Although my $756 refund has "been issed" it will take 2-3 weeks to post to my account.  While the clerk apologized several times we were not comped for our room and left 500 miles from home with no options allows by the hotel but to wait for our refund.  Not to their credit we did have other resources and are on our way home to await our $756 refund!More</t>
   </si>
   <si>
+    <t>F7234BTtinam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r491566735-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -345,6 +372,9 @@
     <t>06/08/2017</t>
   </si>
   <si>
+    <t>C.j. B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r481306912-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -363,6 +393,9 @@
     <t>Responded May 4, 2017</t>
   </si>
   <si>
+    <t>434dedrickb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r479986666-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -378,6 +411,9 @@
     <t>Responded May 2, 2017</t>
   </si>
   <si>
+    <t>michelleaY5009ZA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r475315733-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -393,6 +429,9 @@
     <t>Responded April 17, 2017</t>
   </si>
   <si>
+    <t>PatriciaHembree</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r469666021-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -411,6 +450,9 @@
     <t>Responded April 5, 2017</t>
   </si>
   <si>
+    <t>kristyd953</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r465678382-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -435,6 +477,9 @@
     <t>The place appears clean till you look closer and there is stuff all over your beds including what appeared to be urine, blood or other bodily fluids and food from who knows when. There was one towel for two occupants and I had to wait three hours for them to wash me some so I could shower on which I did not because there were bugs in the tub. I actually got cleaning supplies out of my car and cleaned a spot for me to sleep and was lucky I had my own blanket and pillow. I couldn't not afford to go any place else and was a women alone in a strange town from another state. I was charged for two but my daughter couldn't stay had to send her home with my ex which is someone she doesn't even know but it was safer then staying in the room.More</t>
   </si>
   <si>
+    <t>Karie J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r459718631-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -465,6 +510,9 @@
     <t>Upon arrival, I was assigned a room, and the air conditioner did not work. I called the front desk and the lady there argued with me and told me to try it again. I did, and it still didn't work.  Then I tried to close the curtain and the first hook on one side was missing, so there was about a 5 inch gap. So I called back and asked for another room. She gave me one.  This time the AC worked but when it was cooling it was EXTREMELY LOUD and I couldn't sleep unless I just ran the fan, no cooling. I know it was February but it was 90 degrees that day. so it was an unacceptable situation.  The room didn't have that clean comfortable feel to it. Not going back.More</t>
   </si>
   <si>
+    <t>michaelnQ7074JD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r448675877-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -492,6 +540,9 @@
     <t>I asked if they had a large tub room and they said they had a whirlpool room that would be more money, but that it wasn't working anymore (seemed like a long time) and I asked if it held water. They didn't know.But the room I did get recently had the bathroom tub/shower/floor redone. And the tub was deeper than older tubs which was great. I'm a truck driver that loves baths. Had a two soak listening to the blues and rock.More</t>
   </si>
   <si>
+    <t>Kevin W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r445425358-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -516,6 +567,9 @@
     <t>Our first room had mold growing on the box spings and mattress , the carpets were filthy , and the base board trim was falling off the wall. We were moved to a second room which was no better and then a third room that was still disgusting .  With the noise from the band across the street and the people on the second floor tossing out the beef cans to the parking area we leftMore</t>
   </si>
   <si>
+    <t>W6325CEgarys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r440759497-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -534,6 +588,9 @@
     <t>Responded December 1, 2016</t>
   </si>
   <si>
+    <t>Phil D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r426394801-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -561,6 +618,9 @@
     <t>Trip to first Monday.  Bed had cigarette burns in bedspread.  Crickets all over the place.  Terrible smellMore</t>
   </si>
   <si>
+    <t>montab32</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r421639606-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -600,6 +660,9 @@
     <t>Owners and employees are very pleasant and accommodating.  Disappointed with the carpet in the rooms they are dirty.  The blankets and bedspreads need to be laundered. The outside is well lit and parking is ampleMore</t>
   </si>
   <si>
+    <t>bradix2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r397570080-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -615,6 +678,9 @@
     <t>Responded August 2, 2016</t>
   </si>
   <si>
+    <t>Richard M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r387408724-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -633,6 +699,9 @@
     <t>Responded July 12, 2016</t>
   </si>
   <si>
+    <t>Michael M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r385781818-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -642,6 +711,9 @@
     <t>06/25/2016</t>
   </si>
   <si>
+    <t>aramies2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r370002849-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -660,6 +732,9 @@
     <t>Responded May 4, 2016</t>
   </si>
   <si>
+    <t>72albertw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r366096300-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -684,6 +759,9 @@
     <t>i was dropped off by taxi due to my car was in shop for repair.  I just had knee replacement.  room had dirty towels in floor, toilet was dirty and floor was dirty around toilet.  also mirror in bathroom had dirty spots all over it.  I spoke to manager Nimi Desai about it and her reaction was she didnt care.  She told me i could have gone to another hotel, due to that was the last room that they had.   I stay at these properties all the time and this was by the far the rudest manager and worst stay ive ever had.  I would like a call back and something dont to the manager at this property.More</t>
   </si>
   <si>
+    <t>Gergana M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r357991632-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -711,6 +789,9 @@
     <t>It should be illegal to charge for staying in a place like this. If it wasn't late, I would have left right away. The smell in the room was horrible, the carpet was wet, there were dirty dishes and leftover food in the fridge. We were all sick the next day - I suspect there is mold. They charged horribly high price for a place that should be closed down. They advertise breakfast - what a horror. The waffle mixture was spoiled and tasted nasty, there was bread and butter, some kind of sugary pastry, and that's it, not even cream cheese. Nobody should stay there - drive 25 more minutes and will be in some decent places outside of Dallas.More</t>
   </si>
   <si>
+    <t>Tarey T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r324361646-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -738,6 +819,9 @@
     <t>We have stayed at this property before with no complaints or problems but this most recent trip was full of problems. We booked three rooms with problems in each one. My parent's room had a toilet seat that was unsecure and a coffee maker that leaked everywhere. The mini-fridge also leaked all over the carpet. These issues were brought to the attention of the front desk on the first night-no repairs were made. Out second room, booked and advertised as Non-smoking was full of a smoke smell. The third room, sheets were stained. I am sorely disappointed in this hotel and will likely not re-book here. More</t>
   </si>
   <si>
+    <t>Donna B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r323978164-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -762,6 +846,9 @@
     <t>This was one of the worst hotel/motels that I have ever visited.  The only saving grace was the two desk clerks, Melissa and Jennifer, who tried unsuccessfully to correct the problems.  Light in vanity did work sporadically (starter?), coffee maker touchy = had to hold down the button that turns it on, carpet was filthy, toilet seat was loose so it shifted when I sat down.  One room (we had 3) had sheets on one bed that were stained.  No manager on duty, no maintenance available.More</t>
   </si>
   <si>
+    <t>Bill H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r323651841-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -783,6 +870,9 @@
     <t>This motel is about 40 Miles East of Dallas Texas.  Reasonable Price, Nice Rooms,  Tanger Factory Outlets this exit also. Good Place to stay just outside of the Dallas Area.  Plenty of Restaurant Options within a mile of the Motel.  Good Parking for a Tour Bus on a Concrete Parking Lot alsoMore</t>
   </si>
   <si>
+    <t>Kristine P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r295138049-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -810,6 +900,9 @@
     <t>It was fine for a night. Clean, basic lodging. I had to ask for towels because there was only a hand towel in the room. The staff was friendly and helpful. The room had been updated at some point. They seemed to be doing their best to put a fresh face on an old property.More</t>
   </si>
   <si>
+    <t>B7267DWrichardb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r294827942-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -822,6 +915,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>franceslindsay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r294213636-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -837,6 +933,9 @@
     <t>Responded July 31, 2015</t>
   </si>
   <si>
+    <t>596sherrillm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r280533234-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -855,6 +954,9 @@
     <t>Responded July 5, 2015</t>
   </si>
   <si>
+    <t>Carol G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r277302551-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -873,6 +975,9 @@
     <t>Responded June 12, 2015</t>
   </si>
   <si>
+    <t>Kelly B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r274835618-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -891,6 +996,9 @@
     <t>The stay was not bad.  The room was clean, the AC worked perfectly.  They had coffee in the lobby and the room.  the pool was small but extremely clean. The staff was extremely friendly and helpful.  I would stay here again.  The only tip would be to get a room at the back of the hotel to lessen the road noise.More</t>
   </si>
   <si>
+    <t>Sharon D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r249216716-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -909,6 +1017,9 @@
     <t>Responded January 19, 2015</t>
   </si>
   <si>
+    <t>A Wyndham traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r247489058-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -924,6 +1035,9 @@
     <t>Responded January 5, 2015</t>
   </si>
   <si>
+    <t>Txproudgal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r242835581-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -948,6 +1062,9 @@
     <t>Passing through the area on interstate 20 and started drizzling and this was a very convenient and well lit exit for us.  Pulled into super 8 and got a nice clean room with all the amenities including some we didn't expect in such a small hotel.  And the price was very reasonable for the area comparing online prices.  The young girl at the front desk Debbie even directed us to an amazing little local steak house we'd never have found on our own.  Definitely going to mark this spot on our gps as we travel through here often.More</t>
   </si>
   <si>
+    <t>Ken A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r236327605-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -975,6 +1092,9 @@
     <t>It looked clean but you never know, I told the lady at the front desk the next morning, she said that she would have maintaince look into it. also they had something going on across the street at the bar and so do to the greed of the owner they were charging more. that is crap. why do I have to pay more because the greedy owner knows that they are going to rent the rooms at a higher price. I will never stay there again and will tell everone I know to stay far away.More</t>
   </si>
   <si>
+    <t>mike j</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r236112687-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1017,6 +1137,9 @@
     <t>Responded September 25, 2014</t>
   </si>
   <si>
+    <t>Kim B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r221680196-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1044,6 +1167,9 @@
     <t>The desk clerk that checked us in named Stephanie was very friendly and helpful and got us checked in quickly in which I was very grateful for. It was very hot outside that night and the a/c didn't cool the room adequately. Overall a great stay!!!!More</t>
   </si>
   <si>
+    <t>Christofer H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r220264929-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1071,6 +1197,9 @@
     <t>Customer service was great and breakfast was excellent. We did request a non-smoking room, but the room still smelled like smoke. Also, the weather was unseasonably cool and rainy, but the hot tub was the same temperature as the pool, which was a little disappointing. More</t>
   </si>
   <si>
+    <t>Julia M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r218492844-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1095,6 +1224,9 @@
     <t>We recently stayed here for a few nights while in town for a wedding.  The staff was great, and the rooms were clean and well-stocked.  We thoroughly enjoyed our stay.  It was a great value for a low price.More</t>
   </si>
   <si>
+    <t>Dennis W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r212252660-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1122,6 +1254,9 @@
     <t>I realized this is a Budget Motel, but our room was not good. It had all these small flies in it along with hair all in the bottom of the bath, part of this problem was probably because the tub drained so slow. Also the carpet was filthy. Not worth $60.More</t>
   </si>
   <si>
+    <t>Sondra T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r211882563-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1140,6 +1275,9 @@
     <t>Checking in the lady was taking a personal phone call, that's my biggest pet peeve. Ugh. Motioned her finger which way my room. The bed was hard. Non existing pillows. No chair to sit in. It was clean. I thought the price was a little much for this particular place.More</t>
   </si>
   <si>
+    <t>Susan C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r196483003-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1158,6 +1296,9 @@
     <t>Responded March 13, 2014</t>
   </si>
   <si>
+    <t>Al M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r181847684-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1176,6 +1317,9 @@
     <t>Responded November 9, 2013</t>
   </si>
   <si>
+    <t>Donald D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r180307935-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1185,6 +1329,9 @@
     <t>10/09/2013</t>
   </si>
   <si>
+    <t>Dennis P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r176750279-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1212,6 +1359,9 @@
     <t>Service was great. Clerk on duty at check-in was extremely professional and helpful. Clerk on duty the next morning was constantly re-stocking the breakfast area. Room furniture and bed comforter were a bit worn and out-dated. But the room was clean and everything was in working order. I would recommend this property.More</t>
   </si>
   <si>
+    <t>Stephen L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r173491253-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1230,6 +1380,9 @@
     <t>Room was clean, bed comfortable. Had a noise problem because of a night club across the street, until 2 AM.More</t>
   </si>
   <si>
+    <t>Ricky H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r164287797-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1248,6 +1401,9 @@
     <t>Responded June 24, 2013</t>
   </si>
   <si>
+    <t>Mikaell D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r160743912-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1266,6 +1422,9 @@
     <t>Responded June 3, 2013</t>
   </si>
   <si>
+    <t>Tammywoo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r151191500-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1290,6 +1449,9 @@
     <t>Super 8 in Terrell was a small treat.   The check in service was great the staff upon checking in we're superb!   The room was clean and neat    The only thing I could say is need more pillows but overall a decent room for the price.More</t>
   </si>
   <si>
+    <t>BARBARA S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r146164278-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1308,6 +1470,9 @@
     <t>Responded August 6, 2014</t>
   </si>
   <si>
+    <t>Joe N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r145417767-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1317,6 +1482,9 @@
     <t>11/14/2012</t>
   </si>
   <si>
+    <t>VICKIE S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r144694064-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1326,6 +1494,9 @@
     <t>11/05/2012</t>
   </si>
   <si>
+    <t>Waldon A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r130168267-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1344,6 +1515,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>tlocations</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r129206531-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1362,6 +1536,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>Cntrycupcake</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r123811247-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1380,6 +1557,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>dallasroadman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r24890137-Super_8_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1396,6 +1576,9 @@
   </si>
   <si>
     <t>January 2009</t>
+  </si>
+  <si>
+    <t>Fraisie</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d247116-r8221589-Super_8_Terrell-Terrell_Texas.html</t>
@@ -1918,43 +2101,47 @@
       <c r="A2" t="n">
         <v>26234</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>179510</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -1976,54 +2163,58 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>26234</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>179511</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -2045,56 +2236,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>26234</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>7948</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -2112,56 +2307,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>26234</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>179512</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -2183,54 +2382,58 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>26234</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>179513</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2252,56 +2455,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>26234</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>6433</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2323,54 +2530,58 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>26234</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>10578</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2392,56 +2603,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="X8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Y8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>26234</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>179514</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2453,54 +2668,58 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="X9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>26234</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>179515</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2524,48 +2743,52 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>26234</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>179516</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2587,54 +2810,58 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="X11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="Y11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>26234</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>179517</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -2656,54 +2883,58 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="X12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="Y12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>26234</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>179518</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -2725,54 +2956,58 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="X13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="Y13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>26234</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>179519</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2794,56 +3029,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="X14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="Y14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>26234</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>179520</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -2865,56 +3104,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="X15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="Y15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>26234</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>179521</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="O16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -2936,56 +3179,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="X16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="Y16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>26234</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>179522</v>
+      </c>
+      <c r="C17" t="s">
+        <v>164</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3007,56 +3254,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="X17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="Y17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>26234</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>20558</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="O18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -3078,54 +3329,58 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="X18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="Y18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>26234</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>179523</v>
+      </c>
+      <c r="C19" t="s">
+        <v>183</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="J19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="O19" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -3147,56 +3402,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="X19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="Y19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>26234</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>1023</v>
+      </c>
+      <c r="C20" t="s">
+        <v>190</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -3218,54 +3477,58 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="X20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="Y20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>26234</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>179524</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="J21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="O21" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -3287,56 +3550,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="X21" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="Y21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>26234</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>179515</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="J22" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="K22" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="O22" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3348,54 +3615,58 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="X22" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="Y22" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>26234</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>179525</v>
+      </c>
+      <c r="C23" t="s">
+        <v>214</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="J23" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="O23" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3417,54 +3688,58 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="X23" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="Y23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>26234</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>9365</v>
+      </c>
+      <c r="C24" t="s">
+        <v>220</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="J24" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="O24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -3486,54 +3761,58 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="X24" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="Y24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>26234</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>3657</v>
+      </c>
+      <c r="C25" t="s">
+        <v>227</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="J25" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="O25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -3555,54 +3834,58 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="X25" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="Y25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>26234</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>179526</v>
+      </c>
+      <c r="C26" t="s">
+        <v>231</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="J26" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3624,56 +3907,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="X26" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="Y26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>26234</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>179527</v>
+      </c>
+      <c r="C27" t="s">
+        <v>238</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="J27" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="K27" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="L27" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="O27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -3695,56 +3982,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="X27" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="Y27" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>26234</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>179528</v>
+      </c>
+      <c r="C28" t="s">
+        <v>247</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="J28" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="K28" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -3766,56 +4057,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="X28" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="Y28" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>26234</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>179529</v>
+      </c>
+      <c r="C29" t="s">
+        <v>257</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="J29" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="K29" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="L29" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="O29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3837,56 +4132,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="X29" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="Y29" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>26234</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>10184</v>
+      </c>
+      <c r="C30" t="s">
+        <v>267</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="J30" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="K30" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="L30" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="O30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -3904,56 +4203,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="X30" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="Y30" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>26234</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>10096</v>
+      </c>
+      <c r="C31" t="s">
+        <v>276</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="J31" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="K31" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3971,56 +4274,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="X31" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="Y31" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>26234</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>45775</v>
+      </c>
+      <c r="C32" t="s">
+        <v>284</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="J32" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="K32" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="L32" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="O32" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4032,54 +4339,58 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="X32" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="Y32" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>26234</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>179530</v>
+      </c>
+      <c r="C33" t="s">
+        <v>294</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="J33" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4101,54 +4412,58 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="X33" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="Y33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>26234</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>179531</v>
+      </c>
+      <c r="C34" t="s">
+        <v>299</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="J34" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="O34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -4170,54 +4485,58 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="X34" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="Y34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>26234</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>179532</v>
+      </c>
+      <c r="C35" t="s">
+        <v>305</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="J35" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4239,54 +4558,58 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="X35" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="Y35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>26234</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>4758</v>
+      </c>
+      <c r="C36" t="s">
+        <v>312</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="J36" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="O36" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4308,56 +4631,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="X36" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="Y36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>26234</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>1820</v>
+      </c>
+      <c r="C37" t="s">
+        <v>319</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="J37" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="K37" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="L37" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="O37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4375,54 +4702,58 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="X37" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="Y37" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>26234</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>18559</v>
+      </c>
+      <c r="C38" t="s">
+        <v>326</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="J38" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="O38" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4444,54 +4775,58 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="X38" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="Y38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>26234</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>6509</v>
+      </c>
+      <c r="C39" t="s">
+        <v>333</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="J39" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="O39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
@@ -4513,47 +4848,51 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="X39" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="Y39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>26234</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>179533</v>
+      </c>
+      <c r="C40" t="s">
+        <v>339</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="J40" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="K40" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="L40" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
@@ -4580,56 +4919,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="X40" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="Y40" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>26234</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>179534</v>
+      </c>
+      <c r="C41" t="s">
+        <v>348</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="J41" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="K41" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="L41" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="O41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -4647,56 +4990,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="X41" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="Y41" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>26234</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>179535</v>
+      </c>
+      <c r="C42" t="s">
+        <v>358</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="J42" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="K42" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="L42" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="O42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4712,54 +5059,58 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="X42" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="Y42" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>26234</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>179515</v>
+      </c>
+      <c r="C43" t="s">
+        <v>118</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="J43" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="O43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4781,56 +5132,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="X43" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="Y43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>26234</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>5624</v>
+      </c>
+      <c r="C44" t="s">
+        <v>373</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="J44" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="K44" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="L44" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="O44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -4848,56 +5203,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="X44" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="Y44" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>26234</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>179536</v>
+      </c>
+      <c r="C45" t="s">
+        <v>383</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="J45" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="K45" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="L45" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="O45" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -4919,56 +5278,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="X45" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="Y45" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>26234</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>28094</v>
+      </c>
+      <c r="C46" t="s">
+        <v>393</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="J46" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="K46" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="L46" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="O46" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4984,56 +5347,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="X46" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="Y46" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>26234</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>2117</v>
+      </c>
+      <c r="C47" t="s">
+        <v>402</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="J47" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="K47" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="L47" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="O47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P47" t="n">
         <v>2</v>
@@ -5055,56 +5422,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="X47" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="Y47" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>26234</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>179537</v>
+      </c>
+      <c r="C48" t="s">
+        <v>412</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="J48" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="K48" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="L48" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="O48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -5126,54 +5497,58 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="X48" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="Y48" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>26234</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>4765</v>
+      </c>
+      <c r="C49" t="s">
+        <v>419</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="J49" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="O49" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5195,54 +5570,58 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="X49" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="Y49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>26234</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>54091</v>
+      </c>
+      <c r="C50" t="s">
+        <v>426</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="J50" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="K50" t="s"/>
       <c r="L50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="O50" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="P50" t="n">
         <v>2</v>
@@ -5264,54 +5643,58 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="X50" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="Y50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>26234</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>25997</v>
+      </c>
+      <c r="C51" t="s">
+        <v>433</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="J51" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="O51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -5333,56 +5716,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="X51" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="Y51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>26234</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>9654</v>
+      </c>
+      <c r="C52" t="s">
+        <v>437</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="J52" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="K52" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="L52" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="O52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5404,56 +5791,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="X52" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="Y52" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>26234</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>13408</v>
+      </c>
+      <c r="C53" t="s">
+        <v>447</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="J53" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K53" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="L53" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="O53" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5475,54 +5866,58 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="X53" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="Y53" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>26234</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>179538</v>
+      </c>
+      <c r="C54" t="s">
+        <v>454</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="J54" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="O54" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
@@ -5544,54 +5939,58 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="X54" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="Y54" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>26234</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>179539</v>
+      </c>
+      <c r="C55" t="s">
+        <v>461</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="J55" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="O55" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5613,47 +6012,51 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="X55" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="Y55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>26234</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>179540</v>
+      </c>
+      <c r="C56" t="s">
+        <v>468</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="J56" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="K56" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="L56" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
@@ -5680,54 +6083,58 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="X56" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="Y56" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>26234</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>179541</v>
+      </c>
+      <c r="C57" t="s">
+        <v>477</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="J57" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="K57" t="s"/>
       <c r="L57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="O57" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -5749,41 +6156,45 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="X57" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="Y57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>26234</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>43690</v>
+      </c>
+      <c r="C58" t="s">
+        <v>484</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="J58" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s"/>
@@ -5791,10 +6202,10 @@
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="O58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5815,36 +6226,37 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>26234</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>179542</v>
+      </c>
+      <c r="C59" t="s">
+        <v>488</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="J59" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s"/>
@@ -5852,10 +6264,10 @@
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="O59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -5876,51 +6288,52 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
-      <c r="Y59" t="s"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>26234</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>179543</v>
+      </c>
+      <c r="C60" t="s">
+        <v>492</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="J60" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="K60" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="L60" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="O60" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5944,50 +6357,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>26234</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>179544</v>
+      </c>
+      <c r="C61" t="s">
+        <v>499</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="J61" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="K61" t="s">
-        <v>445</v>
+        <v>503</v>
       </c>
       <c r="L61" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="O61" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -6011,50 +6428,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>26234</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>179545</v>
+      </c>
+      <c r="C62" t="s">
+        <v>506</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
       <c r="J62" t="s">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="K62" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="L62" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="O62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6078,50 +6499,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>26234</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>7168</v>
+      </c>
+      <c r="C63" t="s">
+        <v>513</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>455</v>
+        <v>515</v>
       </c>
       <c r="J63" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="K63" t="s">
-        <v>457</v>
+        <v>517</v>
       </c>
       <c r="L63" t="s">
-        <v>458</v>
+        <v>518</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>459</v>
+        <v>519</v>
       </c>
       <c r="O63" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P63" t="n">
         <v>1</v>
@@ -6143,50 +6568,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>458</v>
+        <v>518</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>26234</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>179546</v>
+      </c>
+      <c r="C64" t="s">
+        <v>520</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>460</v>
+        <v>521</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
       <c r="J64" t="s">
-        <v>462</v>
+        <v>523</v>
       </c>
       <c r="K64" t="s">
-        <v>463</v>
+        <v>524</v>
       </c>
       <c r="L64" t="s">
-        <v>464</v>
+        <v>525</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
       <c r="O64" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -6210,7 +6639,7 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>464</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
